--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiprono\Desktop\SAFIC\PnL Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6F55A-FF11-48DD-A500-CC4430A3F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B77110-A73E-48DB-90BE-3476F38CBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3. Cost Breakdown" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Scale of Production</t>
   </si>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="P7:Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -686,10 +686,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <f>53.25*129</f>
+        <v>6869.25</v>
+      </c>
+      <c r="F6" s="3">
+        <f>165*129</f>
+        <v>21285</v>
+      </c>
+      <c r="G6" s="3">
+        <f>56.25*129</f>
+        <v>7256.25</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>30*129</f>
+        <v>3870</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
+        <f>53.25*129</f>
+        <v>6869.25</v>
+      </c>
+      <c r="F7" s="3">
+        <f>165*129</f>
+        <v>21285</v>
+      </c>
+      <c r="G7" s="3">
+        <f>56.25*129</f>
+        <v>7256.25</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>30*129</f>
+        <v>3870</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <f>53.25*129</f>
+        <v>6869.25</v>
+      </c>
+      <c r="F8" s="3">
+        <f>165*129</f>
+        <v>21285</v>
+      </c>
+      <c r="G8" s="3">
+        <f>56.25*129</f>
+        <v>7256.25</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>30*129</f>
+        <v>3870</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <f>53.25*129</f>
+        <v>6869.25</v>
+      </c>
+      <c r="F9" s="3">
+        <f>165*129</f>
+        <v>21285</v>
+      </c>
+      <c r="G9" s="3">
+        <f>56.25*129</f>
+        <v>7256.25</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>30*129</f>
+        <v>3870</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1683,7 +1883,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1693,7 +1893,7 @@
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1795,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiprono\Desktop\SAFIC\PnL Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B77110-A73E-48DB-90BE-3476F38CBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805979FB-5055-4A9B-91F1-654149CE6DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3. Cost Breakdown" sheetId="3" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:O991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <f>53.25*129</f>
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <f>53.25*129</f>
